--- a/test/xlsx/styleMerge.xlsx
+++ b/test/xlsx/styleMerge.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>First</t>
+    <t>Text 1</t>
   </si>
   <si>
-    <t>Second</t>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Text4</t>
   </si>
 </sst>
 </file>
@@ -41,7 +47,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -94,11 +100,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left>
+        <color rgb="FF00FF00"/>
+      </left>
+      <right>
+        <color rgb="FF00FF00"/>
+      </right>
+      <top>
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom>
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00FF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00FF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf/>
     <xf borderId="1" applyBorder="true"/>
     <xf borderId="3" applyBorder="true"/>
+    <xf borderId="5" applyBorder="true"/>
+    <xf borderId="7" applyBorder="true"/>
   </cellXfs>
   <dxfs count="0"/>
 </styleSheet>
@@ -106,7 +166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="normal"/>
   </sheetViews>
@@ -124,6 +184,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>